--- a/任务状态机.xlsx
+++ b/任务状态机.xlsx
@@ -11,14 +11,15 @@
     <sheet name="任务状态" sheetId="1" r:id="rId2"/>
     <sheet name="C端任务状态" sheetId="3" r:id="rId3"/>
     <sheet name="B+C状态机" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="流程角色动作" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>角色</t>
   </si>
@@ -550,16 +551,55 @@
     <t>审核/复核失败</t>
   </si>
   <si>
+    <t>流程/角色</t>
+  </si>
+  <si>
+    <t>运营人员</t>
+  </si>
+  <si>
+    <t>发布任务</t>
+  </si>
+  <si>
+    <t>编辑/提交任务</t>
+  </si>
+  <si>
+    <t>审核任务</t>
+  </si>
+  <si>
+    <t>通过/驳回</t>
+  </si>
+  <si>
+    <t>支付订单</t>
+  </si>
+  <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>购买套餐</t>
+  </si>
+  <si>
+    <t>申诉</t>
+  </si>
+  <si>
+    <t>提交工单</t>
+  </si>
+  <si>
+    <t>领取/提交任务</t>
+  </si>
+  <si>
+    <t>下架任务</t>
+  </si>
+  <si>
+    <t>审核交单</t>
+  </si>
+  <si>
+    <t>零钱提现</t>
+  </si>
+  <si>
+    <t>提现</t>
+  </si>
+  <si>
     <t>流程</t>
-  </si>
-  <si>
-    <t>发布任务</t>
-  </si>
-  <si>
-    <t>支付订单</t>
-  </si>
-  <si>
-    <t>审核任务</t>
   </si>
   <si>
     <t>领取任务</t>
@@ -696,10 +736,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -732,6 +772,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -747,14 +864,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -763,55 +872,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,24 +886,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,16 +902,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,7 +916,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +943,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -969,169 +1015,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,17 +1206,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,11 +1269,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,15 +1303,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1265,149 +1311,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1420,34 +1466,46 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="40">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="34" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="34" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="34" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="34" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="34" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,40 +1514,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="34" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1504,70 +1556,76 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1929,10 +1987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1987,180 +2045,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="23" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" s="19" customFormat="1" spans="1:9">
-      <c r="A2" s="24" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+    </row>
+    <row r="2" s="23" customFormat="1" spans="1:9">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="35" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2170,354 +2228,354 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="20" customFormat="1" spans="1:6">
-      <c r="A18" s="33" t="s">
+    <row r="18" s="24" customFormat="1" spans="1:6">
+      <c r="A18" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="37"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="1" spans="3:6">
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" s="20" customFormat="1" spans="1:6">
-      <c r="A23" s="39" t="s">
+    <row r="22" s="25" customFormat="1" spans="3:6">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:6">
+      <c r="A23" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" s="22" customFormat="1" spans="2:6">
-      <c r="B24" s="22" t="s">
+    <row r="24" s="26" customFormat="1" spans="2:6">
+      <c r="B24" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-    </row>
-    <row r="25" s="20" customFormat="1" spans="2:6">
-      <c r="B25" s="20" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="2:6">
+      <c r="B25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" s="22" customFormat="1" spans="2:6">
-      <c r="B26" s="22" t="s">
+    <row r="26" s="26" customFormat="1" spans="2:6">
+      <c r="B26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" s="20" customFormat="1"/>
-    <row r="28" s="18" customFormat="1" spans="3:6">
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="F28" s="44"/>
-    </row>
-    <row r="29" s="20" customFormat="1" spans="1:6">
-      <c r="A29" s="39" t="s">
+    <row r="27" s="24" customFormat="1"/>
+    <row r="28" s="22" customFormat="1" spans="3:6">
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" s="24" customFormat="1" spans="1:6">
+      <c r="A29" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" s="22" customFormat="1" spans="2:6">
-      <c r="B30" s="22" t="s">
+    <row r="30" s="26" customFormat="1" spans="2:6">
+      <c r="B30" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="F31" s="45"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="42" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="42" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="46"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="47" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="44" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="45"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="54" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="3:6">
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="53" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2525,14 +2583,14 @@
       <c r="B42" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="42" t="s">
+      <c r="C42" s="53"/>
+      <c r="D42" s="46" t="s">
         <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="49" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2582,187 +2640,187 @@
     <col min="5" max="5" width="13.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="19" customFormat="1" spans="1:5">
+      <c r="A1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" spans="1:5">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="20" customFormat="1" spans="1:5">
+      <c r="A2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="2:5">
-      <c r="B3" s="5" t="s">
+    <row r="3" s="9" customFormat="1" spans="2:5">
+      <c r="B3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="9" customFormat="1" spans="1:5">
+      <c r="A5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="2:5">
-      <c r="B6" s="16" t="s">
+    <row r="6" s="20" customFormat="1" spans="2:5">
+      <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="9" customFormat="1" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="3:5">
-      <c r="C8" s="5" t="s">
+    <row r="8" s="9" customFormat="1" spans="3:5">
+      <c r="C8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="1" spans="2:5">
-      <c r="B9" s="16" t="s">
+    <row r="9" s="20" customFormat="1" spans="2:5">
+      <c r="B9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1"/>
-    <row r="11" s="5" customFormat="1" spans="1:5">
-      <c r="A11" s="5" t="s">
+    <row r="10" s="9" customFormat="1"/>
+    <row r="11" s="9" customFormat="1" spans="1:5">
+      <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" s="16" customFormat="1" spans="3:5">
-      <c r="C12" s="16" t="s">
+    <row r="12" s="20" customFormat="1" spans="3:5">
+      <c r="C12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="3:5">
-      <c r="C13" s="5" t="s">
+    <row r="13" s="9" customFormat="1" spans="3:5">
+      <c r="C13" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" s="16" customFormat="1"/>
+    <row r="14" s="20" customFormat="1"/>
     <row r="17" spans="3:3">
-      <c r="C17" s="18"/>
+      <c r="C17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2780,7 +2838,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2801,320 +2859,320 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:14">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:14">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:14">
+      <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-    </row>
-    <row r="3" s="5" customFormat="1" spans="1:14">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" s="9" customFormat="1" spans="1:14">
+      <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:14">
-      <c r="A5" s="7" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:14">
+      <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" s="5" customFormat="1" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:14">
+      <c r="A6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:14">
-      <c r="A8" s="7" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:14">
+      <c r="A8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="8" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="27" spans="1:14">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="9" customFormat="1" ht="27" spans="1:14">
+      <c r="A10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="8" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:14">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="9" customFormat="1" spans="1:14">
+      <c r="A12" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="1:14">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" s="9" customFormat="1" spans="1:14">
+      <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3125,9 +3183,139 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3145,22 +3333,22 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
@@ -3169,41 +3357,41 @@
         <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -3217,15 +3405,15 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>82</v>
@@ -3239,119 +3427,119 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
